--- a/negative_yearly_earnings_per_share_2015_df.xlsx
+++ b/negative_yearly_earnings_per_share_2015_df.xlsx
@@ -14,120 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>2015</t>
-  </si>
-  <si>
-    <t>Ticker Symbol</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>APA</t>
-  </si>
-  <si>
-    <t>APC</t>
-  </si>
-  <si>
-    <t>ARNC</t>
-  </si>
-  <si>
-    <t>BHI</t>
-  </si>
-  <si>
-    <t>BSX</t>
-  </si>
-  <si>
-    <t>CAG</t>
-  </si>
-  <si>
-    <t>CHK</t>
-  </si>
-  <si>
-    <t>CHTR</t>
-  </si>
-  <si>
-    <t>CNP</t>
-  </si>
-  <si>
-    <t>COG</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>DVN</t>
-  </si>
-  <si>
-    <t>EOG</t>
-  </si>
-  <si>
-    <t>ETR</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>FTR</t>
-  </si>
-  <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>HCP</t>
-  </si>
-  <si>
-    <t>HES</t>
-  </si>
-  <si>
-    <t>LLL</t>
-  </si>
-  <si>
-    <t>MRO</t>
-  </si>
-  <si>
-    <t>MUR</t>
-  </si>
-  <si>
-    <t>NBL</t>
-  </si>
-  <si>
-    <t>NFX</t>
-  </si>
-  <si>
-    <t>NOV</t>
-  </si>
-  <si>
-    <t>NWSA</t>
-  </si>
-  <si>
-    <t>OXY</t>
-  </si>
-  <si>
-    <t>PNR</t>
-  </si>
-  <si>
-    <t>RRC</t>
-  </si>
-  <si>
-    <t>TDC</t>
-  </si>
-  <si>
-    <t>TGT</t>
-  </si>
-  <si>
-    <t>VRTX</t>
-  </si>
-  <si>
-    <t>WMB</t>
-  </si>
-  <si>
-    <t>XEC</t>
-  </si>
-  <si>
-    <t>YHOO</t>
   </si>
 </sst>
 </file>
@@ -151,12 +40,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -186,11 +81,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,305 +382,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:1">
+      <c r="A2" s="2">
         <v>-0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3">
         <v>-61.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2">
         <v>-13.18</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:1">
+      <c r="A5" s="2">
         <v>-0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:1">
+      <c r="A6" s="2">
         <v>-4.49</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:1">
+      <c r="A7" s="2">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:1">
+      <c r="A8" s="2">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
         <v>-22.43</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
         <v>-2.43</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
         <v>-1.61</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
         <v>-0.28</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
         <v>-35.55</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
         <v>-8.289999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
         <v>-0.99</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
         <v>-11.31</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
         <v>-0.29</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
         <v>-0.79</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
         <v>-1.21</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
         <v>-10.78</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
         <v>-2.97</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
         <v>-3.26</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
         <v>-13.03</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
         <v>-6.07</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
         <v>-21.18</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
         <v>-1.99</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
         <v>-0.26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:1">
+      <c r="A29" s="2">
         <v>-10.23</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:1">
+      <c r="A30" s="2">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:1">
+      <c r="A31" s="2">
         <v>-4.29</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:1">
+      <c r="A32" s="2">
         <v>-1.53</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:1">
+      <c r="A33" s="2">
         <v>-2.58</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:1">
+      <c r="A34" s="2">
         <v>-2.31</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:1">
+      <c r="A35" s="2">
         <v>-0.76</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:1">
+      <c r="A36" s="2">
         <v>-25.92</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:1">
+      <c r="A37" s="2">
         <v>-4.64</v>
       </c>
     </row>

--- a/negative_yearly_earnings_per_share_2015_df.xlsx
+++ b/negative_yearly_earnings_per_share_2015_df.xlsx
@@ -14,9 +14,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>2015</t>
+  </si>
+  <si>
+    <t>Ticker Symbol</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>APA</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>ARNC</t>
+  </si>
+  <si>
+    <t>BHI</t>
+  </si>
+  <si>
+    <t>BSX</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>CHK</t>
+  </si>
+  <si>
+    <t>CHTR</t>
+  </si>
+  <si>
+    <t>CNP</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>DVN</t>
+  </si>
+  <si>
+    <t>EOG</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>FTR</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>HCP</t>
+  </si>
+  <si>
+    <t>HES</t>
+  </si>
+  <si>
+    <t>LLL</t>
+  </si>
+  <si>
+    <t>MRO</t>
+  </si>
+  <si>
+    <t>MUR</t>
+  </si>
+  <si>
+    <t>NBL</t>
+  </si>
+  <si>
+    <t>NFX</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>NWSA</t>
+  </si>
+  <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>PNR</t>
+  </si>
+  <si>
+    <t>RRC</t>
+  </si>
+  <si>
+    <t>TDC</t>
+  </si>
+  <si>
+    <t>TGT</t>
+  </si>
+  <si>
+    <t>VRTX</t>
+  </si>
+  <si>
+    <t>WMB</t>
+  </si>
+  <si>
+    <t>XEC</t>
+  </si>
+  <si>
+    <t>YHOO</t>
   </si>
 </sst>
 </file>
@@ -382,194 +493,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
         <v>-0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
         <v>-61.2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
         <v>-13.18</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
         <v>-0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
         <v>-4.49</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>-22.43</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>-2.43</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>-1.61</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
         <v>-0.28</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
         <v>-35.55</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
         <v>-8.289999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
         <v>-0.99</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
         <v>-11.31</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
         <v>-0.29</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
         <v>-0.79</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
         <v>-1.21</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
         <v>-10.78</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
         <v>-2.97</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
         <v>-3.26</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
         <v>-13.03</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
         <v>-6.07</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
         <v>-21.18</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
         <v>-1.99</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
         <v>-0.26</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
         <v>-10.23</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2">
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
         <v>-4.29</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
         <v>-1.53</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2">
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
         <v>-2.58</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
         <v>-2.31</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
         <v>-0.76</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
         <v>-25.92</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2">
         <v>-4.64</v>
       </c>
     </row>
